--- a/pepfeature/AAdescriptors.xlsx
+++ b/pepfeature/AAdescriptors.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xbox_\Documents\GitHub\epifeature\pepfeature\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{17BA409A-A931-4979-AF8A-28474FE29834}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2E6D2B0-D538-47AE-8AD9-4F803666C528}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="731" activeTab="5"/>
+    <workbookView xWindow="2364" yWindow="624" windowWidth="19548" windowHeight="8856" tabRatio="731" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="crucianiProperties" sheetId="1" r:id="rId1"/>
@@ -41,8 +41,8 @@
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="AAdescriptors" type="6" refreshedVersion="6" background="1" saveData="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="AAdescriptors" type="6" refreshedVersion="6" background="1" saveData="1">
     <textPr sourceFile="/Users/campelof/Github/epitopes/inst/AAdescriptors.txt" tab="0" semicolon="1">
       <textFields count="21">
         <textField/>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="89">
   <si>
     <t>A</t>
   </si>
@@ -334,12 +334,18 @@
   </si>
   <si>
     <t>ProtFP6</t>
+  </si>
+  <si>
+    <t> 0.76</t>
+  </si>
+  <si>
+    <t> -0.29</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -691,7 +697,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W4"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -972,7 +978,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:U11"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -1705,7 +1711,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:U11"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -2438,7 +2444,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:U6"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -2843,7 +2849,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:U7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -3313,7 +3319,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:U9"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -3913,11 +3919,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:U9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -4320,61 +4326,64 @@
         <v>86</v>
       </c>
       <c r="B7">
+        <v>1.06</v>
+      </c>
+      <c r="C7">
         <v>-0.34</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>-1.31</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>1.35</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>-0.55000000000000004</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>2.91</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>-0.38</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>-0.28000000000000003</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>1.41</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>0.71</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>-0.3</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>-0.65</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>-3.54</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>0.55000000000000004</v>
       </c>
-      <c r="O7">
-        <v>0.76</v>
-      </c>
-      <c r="P7">
+      <c r="P7" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q7">
         <v>-1.02</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>-1.2</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>0.08</v>
       </c>
-      <c r="S7">
+      <c r="T7">
         <v>1.04</v>
       </c>
-      <c r="T7">
-        <v>-0.28999999999999998</v>
+      <c r="U7" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.3">
@@ -4509,11 +4518,12 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:U9"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -5113,7 +5123,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:U6"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -5518,7 +5528,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:U4"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">

--- a/pepfeature/AAdescriptors.xlsx
+++ b/pepfeature/AAdescriptors.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xbox_\Documents\GitHub\epifeature\pepfeature\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2E6D2B0-D538-47AE-8AD9-4F803666C528}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA7DCAFB-DC5C-4E29-BFE9-BD9D8C6537CB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2364" yWindow="624" windowWidth="19548" windowHeight="8856" tabRatio="731" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="731" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="crucianiProperties" sheetId="1" r:id="rId1"/>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="87">
   <si>
     <t>A</t>
   </si>
@@ -334,12 +334,6 @@
   </si>
   <si>
     <t>ProtFP6</t>
-  </si>
-  <si>
-    <t> 0.76</t>
-  </si>
-  <si>
-    <t> -0.29</t>
   </si>
 </sst>
 </file>
@@ -3922,8 +3916,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:U9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -4264,52 +4258,52 @@
         <v>-0.39</v>
       </c>
       <c r="C6">
-        <v>3.27</v>
+        <v>-0.39</v>
       </c>
       <c r="D6">
-        <v>0.48</v>
+        <v>-0.39</v>
       </c>
       <c r="E6">
-        <v>-2.14</v>
+        <v>-0.39</v>
       </c>
       <c r="F6">
-        <v>-0.49</v>
+        <v>-0.39</v>
       </c>
       <c r="G6">
-        <v>-0.31</v>
+        <v>-0.39</v>
       </c>
       <c r="H6">
-        <v>1.1599999999999999</v>
+        <v>-0.39</v>
       </c>
       <c r="I6">
-        <v>-0.34</v>
+        <v>-0.39</v>
       </c>
       <c r="J6">
-        <v>-1.23</v>
+        <v>-0.39</v>
       </c>
       <c r="K6">
-        <v>-1.7</v>
+        <v>-0.39</v>
       </c>
       <c r="L6">
-        <v>0.13</v>
+        <v>-0.39</v>
       </c>
       <c r="M6">
-        <v>1.23</v>
+        <v>-0.39</v>
       </c>
       <c r="N6">
-        <v>-3.22</v>
+        <v>-0.39</v>
       </c>
       <c r="O6">
-        <v>0.9</v>
+        <v>-0.39</v>
       </c>
       <c r="P6">
-        <v>1.67</v>
+        <v>-0.39</v>
       </c>
       <c r="Q6">
-        <v>0.99</v>
+        <v>-0.39</v>
       </c>
       <c r="R6">
-        <v>1.06</v>
+        <v>-0.39</v>
       </c>
       <c r="S6">
         <v>0.06</v>
@@ -4367,8 +4361,8 @@
       <c r="O7">
         <v>0.55000000000000004</v>
       </c>
-      <c r="P7" t="s">
-        <v>87</v>
+      <c r="P7">
+        <v>0.76</v>
       </c>
       <c r="Q7">
         <v>-1.02</v>
@@ -4382,8 +4376,8 @@
       <c r="T7">
         <v>1.04</v>
       </c>
-      <c r="U7" t="s">
-        <v>88</v>
+      <c r="U7">
+        <v>-0.28999999999999998</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.3">

--- a/pepfeature/AAdescriptors.xlsx
+++ b/pepfeature/AAdescriptors.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xbox_\Documents\GitHub\epifeature\pepfeature\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA7DCAFB-DC5C-4E29-BFE9-BD9D8C6537CB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7028CCFD-A7F2-4F5B-93A0-4317C95EE846}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="731" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -340,7 +340,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -353,6 +353,13 @@
       <color rgb="FF172B4D"/>
       <name val="Segoe UI"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -372,15 +379,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{E8541B58-92BA-4910-A137-4C35EAE886C7}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3916,8 +3926,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:U9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="U6" sqref="B6:U6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -4254,64 +4264,64 @@
       <c r="A6" t="s">
         <v>56</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="2">
         <v>-0.39</v>
       </c>
-      <c r="C6">
-        <v>-0.39</v>
-      </c>
-      <c r="D6">
-        <v>-0.39</v>
-      </c>
-      <c r="E6">
-        <v>-0.39</v>
-      </c>
-      <c r="F6">
-        <v>-0.39</v>
-      </c>
-      <c r="G6">
-        <v>-0.39</v>
-      </c>
-      <c r="H6">
-        <v>-0.39</v>
-      </c>
-      <c r="I6">
-        <v>-0.39</v>
-      </c>
-      <c r="J6">
-        <v>-0.39</v>
-      </c>
-      <c r="K6">
-        <v>-0.39</v>
-      </c>
-      <c r="L6">
-        <v>-0.39</v>
-      </c>
-      <c r="M6">
-        <v>-0.39</v>
-      </c>
-      <c r="N6">
-        <v>-0.39</v>
-      </c>
-      <c r="O6">
-        <v>-0.39</v>
-      </c>
-      <c r="P6">
-        <v>-0.39</v>
-      </c>
-      <c r="Q6">
-        <v>-0.39</v>
-      </c>
-      <c r="R6">
-        <v>-0.39</v>
-      </c>
-      <c r="S6">
+      <c r="C6" s="2">
+        <v>3.27</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.48</v>
+      </c>
+      <c r="E6" s="2">
+        <v>-2.14</v>
+      </c>
+      <c r="F6" s="2">
+        <v>-0.49</v>
+      </c>
+      <c r="G6" s="2">
+        <v>-0.31</v>
+      </c>
+      <c r="H6" s="2">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="I6" s="2">
+        <v>-0.34</v>
+      </c>
+      <c r="J6" s="2">
+        <v>-1.23</v>
+      </c>
+      <c r="K6" s="2">
+        <v>-1.7</v>
+      </c>
+      <c r="L6" s="2">
+        <v>0.13</v>
+      </c>
+      <c r="M6" s="2">
+        <v>1.23</v>
+      </c>
+      <c r="N6" s="2">
+        <v>-3.22</v>
+      </c>
+      <c r="O6" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="P6" s="2">
+        <v>1.67</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>0.99</v>
+      </c>
+      <c r="R6" s="2">
+        <v>1.06</v>
+      </c>
+      <c r="S6" s="2">
         <v>0.06</v>
       </c>
-      <c r="T6">
+      <c r="T6" s="2">
         <v>-1.08</v>
       </c>
-      <c r="U6">
+      <c r="U6" s="2">
         <v>-0.06</v>
       </c>
     </row>
